--- a/comparission.xlsx
+++ b/comparission.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rene.cardozo/Documents/masterthesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D392CF8-422B-0949-9FE6-A04F019E06B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B75CE9-69E4-574D-A017-BBBC3C360382}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5320" yWindow="920" windowWidth="28040" windowHeight="17440" xr2:uid="{4A8355EA-D6FC-EA4C-8891-44517EBBEFD5}"/>
+    <workbookView xWindow="2600" yWindow="460" windowWidth="30920" windowHeight="17900" activeTab="2" xr2:uid="{4A8355EA-D6FC-EA4C-8891-44517EBBEFD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>playerID</t>
   </si>
@@ -41,12 +43,33 @@
   <si>
     <t>Accuracy 2</t>
   </si>
+  <si>
+    <t>1 capa</t>
+  </si>
+  <si>
+    <t>2 capa</t>
+  </si>
+  <si>
+    <t>3 capa</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Sensitivity</t>
+  </si>
+  <si>
+    <t>Specificity</t>
+  </si>
+  <si>
+    <t>0..98</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -54,16 +77,60 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5B9BD5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAEFF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -71,12 +138,78 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF5B9BD5"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF5B9BD5"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF5B9BD5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF5B9BD5"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF5B9BD5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF5B9BD5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF5B9BD5"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF5B9BD5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -724,7 +857,871 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Comparacion</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1 capa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>105248644</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72312627</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101356886</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>132851371</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>159020918</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>116585378</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>73562326</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>106863163</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94296097</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>101695162</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>94155156</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41231571</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34505203</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>82262664</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>106573901</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>134556694</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>92423451</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>121769650</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>87278757</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>125581247</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>94738847</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>86745912</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>111620041</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25907144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8A56-0C41-A8E8-E391E652E348}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 capa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>105248644</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72312627</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101356886</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>132851371</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>159020918</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>116585378</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>73562326</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>106863163</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94296097</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>101695162</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>94155156</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41231571</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34505203</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>82262664</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>106573901</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>134556694</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>92423451</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>121769650</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>87278757</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>125581247</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>94738847</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>86745912</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>111620041</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25907144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8A56-0C41-A8E8-E391E652E348}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3 capa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>105248644</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72312627</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101356886</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>132851371</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>159020918</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>116585378</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>73562326</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>106863163</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94296097</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>101695162</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>94155156</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41231571</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34505203</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>82262664</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>106573901</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>134556694</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>92423451</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>121769650</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>87278757</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>125581247</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>94738847</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>86745912</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>111620041</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25907144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8A56-0C41-A8E8-E391E652E348}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="971695343"/>
+        <c:axId val="971696975"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="971695343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="971696975"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="971696975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="971695343"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1267,6 +2264,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1288,6 +2788,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4782648-62DD-F043-96DA-25DEB635A453}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361627</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>183611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>215254</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>10762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AB89129-D202-9D44-8CDD-FE2753668E79}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1607,7 +3148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B303ABF-FD9B-6647-BDC3-AC50DE576461}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection sqref="A1:C25"/>
     </sheetView>
   </sheetViews>
@@ -1892,4 +3433,733 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92E0C1E-DB5A-DB4D-BBA8-AB500AB80402}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView zoomScale="118" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>105248644</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>72312627</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>101356886</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>132851371</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>159020918</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>116585378</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>73562326</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>106863163</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>94296097</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>101695162</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>94155156</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>41231571</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>34505203</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>82262664</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>106573901</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>134556694</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>92423451</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>121769650</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>87278757</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>125581247</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>94738847</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>86745912</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>111620041</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>25907144</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C253FB-8580-8E48-AEDA-E533C7EBE06D}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="23" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>105248644</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0.63</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="E2" s="7">
+        <v>34505203</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0.51</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>72312627</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0.68</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="E3" s="10">
+        <v>82262664</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0.74</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="H3" s="11">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>101356886</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.84</v>
+      </c>
+      <c r="E4" s="7">
+        <v>106573901</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>132851371</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0.52</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0.67</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="10">
+        <v>134556694</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0.53</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>159020918</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="E6" s="7">
+        <v>92423451</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0.74</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>116585378</v>
+      </c>
+      <c r="B7" s="10">
+        <v>0.65</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0.49</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="E7" s="10">
+        <v>121769650</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0.63</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0.87</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>73562326</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="E8" s="7">
+        <v>87278757</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0.63</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.42</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>106863163</v>
+      </c>
+      <c r="B9" s="10">
+        <v>0.66</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.99</v>
+      </c>
+      <c r="E9" s="10">
+        <v>125581247</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0.63</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>94296097</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0.61</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="E10" s="7">
+        <v>94738847</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0.65</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="23" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>101695162</v>
+      </c>
+      <c r="B11" s="10">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C11" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.98</v>
+      </c>
+      <c r="E11" s="10">
+        <v>86745912</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0.62</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>94155156</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0.64</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="E12" s="7">
+        <v>111620041</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.61</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>41231571</v>
+      </c>
+      <c r="B13" s="10">
+        <v>0.67</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0.18</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0.86</v>
+      </c>
+      <c r="E13" s="10">
+        <v>25907144</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0.59</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0.99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>